--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738FC0E-79D5-4A92-B8E6-031AC7684FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCAA01-F10A-4072-8381-8E59AA11C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="633">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2117,12 +2117,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>centralised</t>
-  </si>
-  <si>
-    <t>decentralised</t>
-  </si>
-  <si>
     <t>Methane - eNergy Emissions</t>
   </si>
   <si>
@@ -2851,6 +2845,24 @@
   </si>
   <si>
     <t>NCAP_BND~0</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>High pressure (500 bar)</t>
+  </si>
+  <si>
+    <t>Medium pressure (100 bar)</t>
+  </si>
+  <si>
+    <t>Centralised</t>
+  </si>
+  <si>
+    <t>Distributed</t>
   </si>
 </sst>
 </file>
@@ -7148,9 +7160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7188,9 +7200,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7223,26 +7235,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7275,26 +7270,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7932,7 +7910,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="440" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B16" s="440"/>
       <c r="C16" s="440"/>
@@ -8018,10 +7996,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="283" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B19" s="439" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C19" s="439"/>
       <c r="D19" s="439"/>
@@ -8050,10 +8028,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="283" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B20" s="439" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C20" s="439"/>
       <c r="D20" s="439"/>
@@ -8082,10 +8060,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="283" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B21" s="286" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C21" s="286"/>
       <c r="D21" s="286"/>
@@ -8142,10 +8120,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="283" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B23" s="439" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C23" s="439"/>
       <c r="D23" s="439"/>
@@ -8175,7 +8153,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="283"/>
       <c r="B24" s="286" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C24" s="286"/>
       <c r="D24" s="286"/>
@@ -8205,7 +8183,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="283"/>
       <c r="B25" s="286" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C25" s="286"/>
       <c r="D25" s="286"/>
@@ -8234,10 +8212,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="283" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B26" s="439" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C26" s="439"/>
       <c r="D26" s="439"/>
@@ -8322,7 +8300,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="283" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B29" s="287">
         <v>1</v>
@@ -8354,10 +8332,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="283" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B30" s="441" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C30" s="439"/>
       <c r="D30" s="439"/>
@@ -8386,10 +8364,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="283" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B31" s="439" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C31" s="439"/>
       <c r="D31" s="439"/>
@@ -8419,7 +8397,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="289"/>
       <c r="B32" s="290" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C32" s="289"/>
       <c r="D32" s="289"/>
@@ -10374,7 +10352,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -10388,7 +10366,7 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>2</v>
@@ -10409,13 +10387,13 @@
         <v>45</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>207</v>
@@ -10426,7 +10404,7 @@
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>46</v>
@@ -10638,10 +10616,10 @@
         <v>222</v>
       </c>
       <c r="J9" s="192" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K9" s="192" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L9" s="126" t="s">
         <v>221</v>
@@ -10715,7 +10693,7 @@
     </row>
     <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>2</v>
@@ -10745,7 +10723,7 @@
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>46</v>
@@ -10982,15 +10960,15 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="40" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="274" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C29" s="272" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -11027,12 +11005,12 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -11083,7 +11061,7 @@
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -11103,7 +11081,7 @@
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>59</v>
@@ -11905,7 +11883,7 @@
       <c r="D2" s="113"/>
       <c r="E2" s="114"/>
       <c r="F2" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G2" s="120"/>
       <c r="H2" s="121"/>
@@ -11924,7 +11902,7 @@
     </row>
     <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="110" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="110" t="s">
         <v>2</v>
@@ -11939,19 +11917,19 @@
         <v>38</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>219</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J3" s="109" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K3" s="109" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L3" s="109" t="s">
         <v>207</v>
@@ -12462,7 +12440,7 @@
     </row>
     <row r="22" spans="3:30">
       <c r="C22" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D22" s="224">
         <f>1/SUM(E24:E35)</f>
@@ -12677,7 +12655,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -12687,7 +12665,7 @@
     </row>
     <row r="3" spans="2:20">
       <c r="B3" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>2</v>
@@ -12702,16 +12680,16 @@
         <v>38</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>40</v>
@@ -12729,16 +12707,16 @@
         <v>45</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="R3"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>46</v>
@@ -16760,7 +16738,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="66" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B1" s="66"/>
     </row>
@@ -16769,7 +16747,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C2" s="23">
         <v>4.1868000000000002E-2</v>
@@ -16780,10 +16758,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C3" s="23">
         <v>1.0550999999999999</v>
@@ -16797,22 +16775,22 @@
         <v>89</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C4" s="23">
         <v>7.33</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E4" s="255"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C5" s="23">
         <f>C2/C4*1000</f>
@@ -16824,35 +16802,35 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="66" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C10" s="23">
         <v>1.1194745098039223</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C11" s="23">
         <v>1.1809545098039216</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -17022,13 +17000,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="228" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="228" t="s">
         <v>454</v>
-      </c>
-      <c r="C5" s="228" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="228" t="s">
-        <v>456</v>
       </c>
       <c r="E5" s="227" t="str">
         <f>A11</f>
@@ -17137,7 +17115,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C6" s="227" t="str">
         <f>C5</f>
@@ -17254,7 +17232,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C7" s="227" t="str">
         <f>"*"&amp;C5</f>
@@ -17374,220 +17352,220 @@
         <v>279</v>
       </c>
       <c r="B10" s="229" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B11" s="230" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="231" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -17681,12 +17659,12 @@
     <col min="44" max="16384" width="9.140625" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="98.25" thickBot="1">
+    <row r="1" spans="1:43" ht="96.75" thickBot="1">
       <c r="A1" s="212" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B1" s="211" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C1" s="213" t="s">
         <v>160</v>
@@ -17722,7 +17700,7 @@
         <v>170</v>
       </c>
       <c r="N1" s="220" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O1" s="209" t="s">
         <v>171</v>
@@ -17773,10 +17751,10 @@
         <v>186</v>
       </c>
       <c r="AE1" s="221" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF1" s="218" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG1" s="209" t="s">
         <v>187</v>
@@ -17785,19 +17763,19 @@
         <v>188</v>
       </c>
       <c r="AI1" s="221" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ1" s="218" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK1" s="221" t="s">
         <v>446</v>
       </c>
-      <c r="AJ1" s="218" t="s">
+      <c r="AL1" s="218" t="s">
         <v>447</v>
       </c>
-      <c r="AK1" s="221" t="s">
+      <c r="AM1" s="219" t="s">
         <v>448</v>
-      </c>
-      <c r="AL1" s="218" t="s">
-        <v>449</v>
-      </c>
-      <c r="AM1" s="219" t="s">
-        <v>450</v>
       </c>
       <c r="AN1" s="210" t="s">
         <v>189</v>
@@ -18804,7 +18782,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="358" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B10" s="359"/>
       <c r="C10" s="360">
@@ -18886,7 +18864,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="307" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B11" s="308"/>
       <c r="C11" s="309">
@@ -18966,7 +18944,7 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="307" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B12" s="308"/>
       <c r="C12" s="309"/>
@@ -19018,7 +18996,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="307" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" s="308"/>
       <c r="C13" s="309">
@@ -19082,7 +19060,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="371" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B14" s="372"/>
       <c r="C14" s="373">
@@ -19322,7 +19300,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="358" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B16" s="359"/>
       <c r="C16" s="360">
@@ -19386,7 +19364,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="307" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B17" s="308"/>
       <c r="C17" s="309">
@@ -19450,7 +19428,7 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="307" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B18" s="308"/>
       <c r="C18" s="309"/>
@@ -19502,7 +19480,7 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="307" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B19" s="308"/>
       <c r="C19" s="309"/>
@@ -19563,7 +19541,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="371" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B20" s="372"/>
       <c r="C20" s="373"/>
@@ -19808,7 +19786,7 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="358" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B22" s="359"/>
       <c r="C22" s="409"/>
@@ -19872,7 +19850,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="413" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B23" s="384"/>
       <c r="C23" s="414"/>
@@ -19922,7 +19900,7 @@
     </row>
     <row r="24" spans="1:43" ht="13.5" thickBot="1">
       <c r="A24" s="322" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B24" s="323"/>
       <c r="C24" s="423">
@@ -20268,8 +20246,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AC86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7:AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20299,7 +20277,7 @@
     <col min="24" max="24" width="1.5703125" customWidth="1"/>
     <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="1.5703125" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:29" ht="18.75">
@@ -20307,7 +20285,7 @@
         <v>282</v>
       </c>
       <c r="E3" s="165" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L3" t="s">
         <v>358</v>
@@ -20322,7 +20300,7 @@
         <v>377</v>
       </c>
       <c r="V3" s="165" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Y3" s="165" t="s">
         <v>384</v>
@@ -20431,7 +20409,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="167" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P5" s="167" t="s">
         <v>335</v>
@@ -20443,13 +20421,13 @@
         <v>9</v>
       </c>
       <c r="T5" s="167" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V5" s="167" t="s">
         <v>378</v>
       </c>
       <c r="W5" s="167" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y5" s="167" t="s">
         <v>382</v>
@@ -20458,10 +20436,10 @@
         <v>385</v>
       </c>
       <c r="AB5" s="167" t="s">
-        <v>388</v>
+        <v>627</v>
       </c>
       <c r="AC5" s="167" t="s">
-        <v>390</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="2:29">
@@ -20499,7 +20477,7 @@
         <v>367</v>
       </c>
       <c r="N6" s="167" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P6" s="167" t="s">
         <v>281</v>
@@ -20511,13 +20489,13 @@
         <v>13</v>
       </c>
       <c r="T6" s="167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V6" s="167" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="W6" s="167" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Y6" s="167" t="s">
         <v>383</v>
@@ -20526,10 +20504,10 @@
         <v>386</v>
       </c>
       <c r="AB6" s="167" t="s">
-        <v>389</v>
+        <v>628</v>
       </c>
       <c r="AC6" s="167" t="s">
-        <v>391</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="2:29">
@@ -20567,7 +20545,7 @@
         <v>339</v>
       </c>
       <c r="N7" s="167" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P7" s="167"/>
       <c r="Q7" s="167"/>
@@ -20575,16 +20553,20 @@
         <v>62</v>
       </c>
       <c r="T7" s="167" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V7" s="167" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W7" s="167"/>
       <c r="Y7" s="167"/>
       <c r="Z7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
+      <c r="AB7" s="167" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC7" s="167" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="167" t="s">
@@ -20618,24 +20600,30 @@
         <v>13</v>
       </c>
       <c r="M8" s="167" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P8" s="167"/>
       <c r="Q8" s="167"/>
       <c r="S8" s="167" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T8" s="167" t="s">
+        <v>422</v>
+      </c>
+      <c r="V8" t="s">
         <v>424</v>
       </c>
-      <c r="V8" t="s">
-        <v>426</v>
-      </c>
       <c r="W8" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="AB8" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC8" s="167" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="2:29">
@@ -20676,16 +20664,16 @@
         <v>363</v>
       </c>
       <c r="S9" s="167" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="T9" s="167" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V9" s="167" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W9" s="167" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="2:29">
@@ -20728,10 +20716,10 @@
       <c r="S10" s="167"/>
       <c r="T10" s="167"/>
       <c r="V10" s="167" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W10" s="167" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="2:29">
@@ -20772,10 +20760,10 @@
         <v>376</v>
       </c>
       <c r="V11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="W11" s="167" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="2:29">
@@ -20816,10 +20804,10 @@
         <v>362</v>
       </c>
       <c r="V12" s="167" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="W12" s="167" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="2:29">
@@ -22507,10 +22495,10 @@
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="181" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C61" s="167" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E61" s="167" t="str">
         <f t="shared" si="16"/>
@@ -22650,7 +22638,7 @@
         <v>72</v>
       </c>
       <c r="C65" s="167" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E65" s="167" t="str">
         <f t="shared" si="16"/>
@@ -22752,10 +22740,10 @@
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="201" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C68" s="202" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E68" s="167" t="str">
         <f t="shared" ref="E68:E76" si="17">I68&amp;H68&amp;J68</f>
@@ -22790,7 +22778,7 @@
         <v>132</v>
       </c>
       <c r="C69" s="167" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E69" s="167" t="str">
         <f t="shared" si="17"/>
@@ -22822,10 +22810,10 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="181" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C70" s="167" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E70" s="167" t="str">
         <f t="shared" si="17"/>
@@ -22857,10 +22845,10 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="181" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C71" s="167" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E71" s="167" t="str">
         <f t="shared" si="17"/>
@@ -22892,10 +22880,10 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="181" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C72" s="167" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E72" s="167" t="str">
         <f t="shared" si="17"/>
@@ -23267,10 +23255,10 @@
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="182" t="s">
+        <v>434</v>
+      </c>
+      <c r="C83" s="167" t="s">
         <v>436</v>
-      </c>
-      <c r="C83" s="167" t="s">
-        <v>438</v>
       </c>
       <c r="E83" s="167" t="str">
         <f>I83&amp;$P$5&amp;H83&amp;J83</f>
@@ -23298,10 +23286,10 @@
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="181" t="s">
+        <v>435</v>
+      </c>
+      <c r="C84" s="167" t="s">
         <v>437</v>
-      </c>
-      <c r="C84" s="167" t="s">
-        <v>439</v>
       </c>
       <c r="E84" s="167" t="str">
         <f>I84&amp;$P$5&amp;H84&amp;J84</f>
@@ -23388,8 +23376,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24078,7 +24066,7 @@
         <v>BIOJKR</v>
       </c>
       <c r="D36" s="204" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E36" s="174" t="s">
         <v>10</v>
@@ -24495,12 +24483,12 @@
         <v>23</v>
       </c>
       <c r="C57" s="179" t="str">
-        <f>CONVENTIONS!$B$35&amp;CONVENTIONS!AB5</f>
+        <f>CONVENTIONS!$B$35&amp;CONVENTIONS!AB7</f>
         <v>ELCC</v>
       </c>
       <c r="D57" s="179" t="str">
-        <f>CONVENTIONS!$C$35 &amp;  " - " &amp; CONVENTIONS!AC5</f>
-        <v>Electricity - centralised</v>
+        <f>CONVENTIONS!$C$35 &amp;  " - " &amp; CONVENTIONS!AC7</f>
+        <v>Electricity - Centralised</v>
       </c>
       <c r="E57" s="174" t="s">
         <v>10</v>
@@ -24519,12 +24507,12 @@
         <v>23</v>
       </c>
       <c r="C58" s="179" t="str">
-        <f>CONVENTIONS!$B$35&amp;CONVENTIONS!AB6</f>
+        <f>CONVENTIONS!$B$35&amp;CONVENTIONS!AB8</f>
         <v>ELCD</v>
       </c>
       <c r="D58" s="179" t="str">
-        <f>CONVENTIONS!$C$35 &amp;  " - " &amp; CONVENTIONS!AC6</f>
-        <v>Electricity - decentralised</v>
+        <f>CONVENTIONS!$C$35 &amp;  " - " &amp; CONVENTIONS!AC8</f>
+        <v>Electricity - Distributed</v>
       </c>
       <c r="E58" s="174" t="s">
         <v>10</v>
@@ -24541,19 +24529,19 @@
         <v>23</v>
       </c>
       <c r="C59" s="179" t="str">
-        <f>CONVENTIONS!$P$5&amp;CONVENTIONS!$B$82&amp;CONVENTIONS!Y5&amp;CONVENTIONS!AB5</f>
-        <v>SUPH2GC</v>
+        <f>CONVENTIONS!$B$82</f>
+        <v>H2</v>
       </c>
       <c r="D59" s="179" t="str">
-        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z5 &amp; " - " &amp; CONVENTIONS!AC5&amp; " (" &amp; CONVENTIONS!$P$5 &amp; ")"</f>
-        <v>Hydrogen gaseous - centralised (SUP)</v>
+        <f>CONVENTIONS!$C$82</f>
+        <v>Hydrogen</v>
       </c>
       <c r="E59" s="174" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="174"/>
       <c r="G59" s="174" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H59" s="174"/>
       <c r="I59" s="174"/>
@@ -24563,19 +24551,19 @@
         <v>23</v>
       </c>
       <c r="C60" s="179" t="str">
-        <f>CONVENTIONS!$P$5&amp;CONVENTIONS!$B$82&amp;CONVENTIONS!Y6&amp;CONVENTIONS!AB5</f>
-        <v>SUPH2LC</v>
+        <f>CONVENTIONS!$B$82&amp;CONVENTIONS!Y6</f>
+        <v>H2L</v>
       </c>
       <c r="D60" s="179" t="str">
-        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z6 &amp; " - " &amp; CONVENTIONS!AC5&amp; " (" &amp; CONVENTIONS!$P$5 &amp; ")"</f>
-        <v>Hydrogen liquid - centralised (SUP)</v>
+        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z6</f>
+        <v>Hydrogen liquid</v>
       </c>
       <c r="E60" s="174" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="174"/>
       <c r="G60" s="174" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H60" s="174"/>
       <c r="I60" s="174"/>
@@ -24585,19 +24573,19 @@
         <v>23</v>
       </c>
       <c r="C61" s="179" t="str">
-        <f>CONVENTIONS!$P$5&amp;CONVENTIONS!$B$82&amp;CONVENTIONS!Y5&amp;CONVENTIONS!AB6</f>
-        <v>SUPH2GD</v>
+        <f>CONVENTIONS!$B$82&amp;CONVENTIONS!Y5&amp;CONVENTIONS!AB5</f>
+        <v>H2GH</v>
       </c>
       <c r="D61" s="179" t="str">
-        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z5 &amp; " - " &amp; CONVENTIONS!AC6 &amp; " (" &amp; CONVENTIONS!$P$5 &amp; ")"</f>
-        <v>Hydrogen gaseous - decentralised (SUP)</v>
+        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z5 &amp; " - " &amp; CONVENTIONS!AC5 &amp; " (" &amp; CONVENTIONS!$P$5 &amp; ")"</f>
+        <v>Hydrogen gaseous - High pressure (500 bar) (SUP)</v>
       </c>
       <c r="E61" s="174" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="174"/>
       <c r="G61" s="174" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H61" s="174"/>
       <c r="I61" s="174"/>
@@ -24607,19 +24595,19 @@
         <v>23</v>
       </c>
       <c r="C62" s="179" t="str">
-        <f>CONVENTIONS!$P$5&amp;CONVENTIONS!$B$82&amp;CONVENTIONS!Y6&amp;CONVENTIONS!AB6</f>
-        <v>SUPH2LD</v>
+        <f>CONVENTIONS!$B$82&amp;CONVENTIONS!Y5&amp;CONVENTIONS!AB6</f>
+        <v>H2GM</v>
       </c>
       <c r="D62" s="179" t="str">
-        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z6 &amp; " - " &amp; CONVENTIONS!AC6 &amp; " (" &amp; CONVENTIONS!$P$5 &amp; ")"</f>
-        <v>Hydrogen liquid - decentralised (SUP)</v>
+        <f>CONVENTIONS!$C$82 &amp; " " &amp; CONVENTIONS!Z5 &amp; " - " &amp; CONVENTIONS!AC6 &amp; " (" &amp; CONVENTIONS!$P$5 &amp; ")"</f>
+        <v>Hydrogen gaseous - Medium pressure (100 bar) (SUP)</v>
       </c>
       <c r="E62" s="174" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="174"/>
       <c r="G62" s="174" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H62" s="174"/>
       <c r="I62" s="174"/>
@@ -24847,8 +24835,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24898,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D4" s="166" t="s">
         <v>2</v>
@@ -24951,7 +24939,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="178" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C6" s="177"/>
       <c r="D6" s="177"/>
@@ -25369,7 +25357,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C22" s="177"/>
       <c r="D22" s="177"/>
@@ -25841,7 +25829,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="177" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C40" s="177"/>
       <c r="D40" s="177"/>
@@ -27021,7 +27009,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="186" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H83" s="167" t="s">
         <v>63</v>
@@ -27050,7 +27038,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="186" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H84" s="167" t="s">
         <v>63</v>
@@ -27541,7 +27529,7 @@
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="157" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C4" s="157" t="s">
         <v>2</v>
@@ -27562,7 +27550,7 @@
         <v>225</v>
       </c>
       <c r="I4" s="158" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J4" s="158" t="s">
         <v>226</v>
@@ -27810,14 +27798,14 @@
   <sheetData>
     <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="257" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="5"/>
@@ -27833,37 +27821,37 @@
     </row>
     <row r="4" spans="2:20">
       <c r="C4" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="N4" s="38" t="s">
         <v>77</v>
@@ -27871,7 +27859,7 @@
     </row>
     <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>46</v>
@@ -27880,7 +27868,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>48</v>
@@ -27948,7 +27936,7 @@
         <v>13.293106237838872</v>
       </c>
       <c r="N6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -27996,13 +27984,13 @@
         <v>12.890088334941915</v>
       </c>
       <c r="N7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -28050,7 +28038,7 @@
         <v>2.065279967615445</v>
       </c>
       <c r="N8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -28101,10 +28089,10 @@
         <v>0.95000000000000495</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -28155,7 +28143,7 @@
         <v>1.2700000000000062</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S10" s="23">
         <v>58.93</v>
@@ -28209,7 +28197,7 @@
         <v>0.87557603686636576</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S11" s="23">
         <v>19.86</v>
@@ -28263,7 +28251,7 @@
         <v>1.0669585115925122</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S12" s="23">
         <v>102.22</v>
@@ -28692,30 +28680,30 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="245" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D24" s="246"/>
       <c r="E24" s="246"/>
       <c r="F24" s="247"/>
       <c r="G24" s="442" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H24" s="442"/>
       <c r="I24" s="442"/>
       <c r="J24" s="443"/>
       <c r="K24" s="444" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L24" s="445"/>
       <c r="M24" s="446" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N24" s="445"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="241" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D25" s="241" t="s">
         <v>76</v>
@@ -28754,10 +28742,10 @@
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="233" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D26" s="233" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E26" s="235">
         <v>91</v>
@@ -28793,10 +28781,10 @@
     </row>
     <row r="27" spans="3:21">
       <c r="C27" s="233" t="s">
+        <v>517</v>
+      </c>
+      <c r="D27" s="233" t="s">
         <v>519</v>
-      </c>
-      <c r="D27" s="233" t="s">
-        <v>521</v>
       </c>
       <c r="E27" s="235">
         <v>8.6999999999999993</v>
@@ -28833,10 +28821,10 @@
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="237" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D28" s="237" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E28" s="239">
         <v>108</v>
@@ -28873,7 +28861,7 @@
     </row>
     <row r="29" spans="3:21">
       <c r="C29" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29"/>
@@ -28905,7 +28893,7 @@
     </row>
     <row r="31" spans="3:21">
       <c r="C31" s="254" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D31" s="254"/>
       <c r="E31" s="258">
@@ -28956,7 +28944,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D32" s="256" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E32" s="251">
         <f>E26/Conversions!$C$10</f>
@@ -29006,7 +28994,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D33" s="234" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E33" s="248">
         <f>E27/Conversions!$C$10</f>
@@ -29056,7 +29044,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D34" s="238" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E34" s="253">
         <f>E28/Conversions!$C$10</f>
@@ -29117,7 +29105,7 @@
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="254" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D36" s="254"/>
       <c r="E36" s="258">
@@ -29168,7 +29156,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D37" s="256" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E37" s="251">
         <f>E32/Conversions!$C$5</f>
@@ -29218,7 +29206,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D38" s="234" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E38" s="248">
         <f>E33/Conversions!$C$3</f>
@@ -29268,7 +29256,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D39" s="238" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E39" s="253">
         <f>E34/(Conversions!$C$2*1000)</f>
@@ -29348,30 +29336,30 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="245" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D42" s="246"/>
       <c r="E42" s="246"/>
       <c r="F42" s="247"/>
       <c r="G42" s="442" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H42" s="442"/>
       <c r="I42" s="442"/>
       <c r="J42" s="443"/>
       <c r="K42" s="444" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L42" s="445"/>
       <c r="M42" s="446" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N42" s="445"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
       <c r="C43" s="241" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D43" s="241" t="s">
         <v>76</v>
@@ -29410,10 +29398,10 @@
     </row>
     <row r="44" spans="3:20">
       <c r="C44" s="233" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D44" s="233" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E44" s="235">
         <v>90</v>
@@ -29451,10 +29439,10 @@
     </row>
     <row r="45" spans="3:20">
       <c r="C45" s="233" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D45" s="233" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E45" s="235">
         <v>8.6</v>
@@ -29492,10 +29480,10 @@
     </row>
     <row r="46" spans="3:20">
       <c r="C46" s="237" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D46" s="237" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E46" s="239">
         <v>106</v>
@@ -29533,7 +29521,7 @@
     </row>
     <row r="47" spans="3:20">
       <c r="C47" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47"/>
@@ -29569,7 +29557,7 @@
     </row>
     <row r="49" spans="3:20">
       <c r="C49" s="254" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D49" s="254"/>
       <c r="E49" s="258">
@@ -29622,7 +29610,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D50" s="256" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E50" s="251">
         <f>E44/Conversions!$C$11</f>
@@ -29674,7 +29662,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D51" s="234" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E51" s="248">
         <f>E45/Conversions!$C$11</f>
@@ -29726,7 +29714,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D52" s="238" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E52" s="253">
         <f>E46/Conversions!$C$11</f>
@@ -29791,7 +29779,7 @@
     </row>
     <row r="54" spans="3:20">
       <c r="C54" s="254" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D54" s="254"/>
       <c r="E54" s="258">
@@ -29843,7 +29831,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D55" s="256" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E55" s="251">
         <f>E50/Conversions!$C$5</f>
@@ -29894,7 +29882,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D56" s="234" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E56" s="248">
         <f>E51/Conversions!$C$3</f>
@@ -29945,7 +29933,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D57" s="238" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E57" s="253">
         <f>E52/(Conversions!$C$2*1000)</f>
@@ -30212,7 +30200,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
@@ -30224,13 +30212,13 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>38</v>
@@ -30259,7 +30247,7 @@
     </row>
     <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>59</v>
@@ -30951,16 +30939,16 @@
     </row>
     <row r="23" spans="2:18" ht="30.75" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>38</v>
@@ -30995,7 +30983,7 @@
     </row>
     <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>59</v>
@@ -31004,7 +30992,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>48</v>
@@ -31074,7 +31062,7 @@
         <v>35.031244673834173</v>
       </c>
       <c r="M25" s="270" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -31098,7 +31086,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="22"/>
@@ -31117,13 +31105,13 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>38</v>
@@ -31152,7 +31140,7 @@
     </row>
     <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>59</v>
@@ -31570,13 +31558,13 @@
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>38</v>
@@ -31621,7 +31609,7 @@
     </row>
     <row r="42" spans="2:23" ht="15.75" thickBot="1">
       <c r="B42" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>59</v>
@@ -31657,7 +31645,7 @@
         <v>10</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -31721,7 +31709,7 @@
         <v>5</v>
       </c>
       <c r="O43" s="61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P43" s="52"/>
       <c r="R43"/>
@@ -32011,7 +31999,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P48" s="52"/>
       <c r="R48"/>
